--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed1/result_data_KNN.xlsx
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5</v>
+        <v>16.497</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.23</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.668</v>
+        <v>16.696</v>
       </c>
     </row>
     <row r="17">
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.476</v>
+        <v>17.006</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>16.941</v>
       </c>
     </row>
     <row r="30">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.998</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="33">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.706</v>
+        <v>16.627</v>
       </c>
     </row>
     <row r="41">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.582</v>
+        <v>16.703</v>
       </c>
     </row>
     <row r="53">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="58">
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.558</v>
+        <v>17.482</v>
       </c>
     </row>
     <row r="67">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="101">
